--- a/medicine/Pharmacie/Diurétique_épargneur_de_potassium/Diurétique_épargneur_de_potassium.xlsx
+++ b/medicine/Pharmacie/Diurétique_épargneur_de_potassium/Diurétique_épargneur_de_potassium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_%C3%A9pargneur_de_potassium</t>
+          <t>Diurétique_épargneur_de_potassium</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les diurétiques épargneurs de potassium ou  diurétiques hyperkaliémiants sont des substances provoquant l'augmentation de la production urinaire tout en épargnant la perte de potassium. Ils sont aussi appelés diurétiques distaux ou diurétiques du tube collecteur cortical en raison de leur sites d'action au niveau rénal : le tube contourné distal et le tube collecteur qui sont les deux derniers segments du néphron.
 Ils sont de deux types :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_%C3%A9pargneur_de_potassium</t>
+          <t>Diurétique_épargneur_de_potassium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Anti-aldostérone</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Produits (DCI et spécialités correspondantes) :
 spironolactone (Aldactone) ;
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diur%C3%A9tique_%C3%A9pargneur_de_potassium</t>
+          <t>Diurétique_épargneur_de_potassium</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Autres diurétiques distaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>amiloride (Modamide)
 triamtérène (Cycloteriam)</t>
